--- a/2024 Utility Billing.xlsx
+++ b/2024 Utility Billing.xlsx
@@ -24,7 +24,7 @@
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -89,12 +89,6 @@
       <b val="1"/>
       <color rgb="FF000000"/>
       <sz val="20"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <sz val="8"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="19">
@@ -8217,9 +8211,9 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="U4:U5"/>
     <mergeCell ref="AG4:AO4"/>
-    <mergeCell ref="AE4:AE91"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="B4:B5"/>
+    <mergeCell ref="AE4:AE91"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="W4:W5"/>
     <mergeCell ref="Y4:Y5"/>
@@ -8240,10 +8234,10 @@
   <dimension ref="A1:AQ174"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="R6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="Q6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomRight" activeCell="X12" sqref="X12"/>
+      <selection pane="bottomRight" activeCell="X10" sqref="X10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -8578,14 +8572,8 @@
       <c r="S6" s="38" t="n">
         <v>3014</v>
       </c>
-      <c r="T6" s="178" t="inlineStr">
-        <is>
-          <t>$377.78</t>
-        </is>
-      </c>
-      <c r="U6" s="16" t="n">
-        <v>2632</v>
-      </c>
+      <c r="T6" s="178" t="n"/>
+      <c r="U6" s="16" t="n"/>
       <c r="V6" s="123" t="inlineStr">
         <is>
           <t>$377.78</t>
@@ -8775,11 +8763,7 @@
       <c r="U8" s="16" t="n">
         <v>133</v>
       </c>
-      <c r="V8" s="123" t="inlineStr">
-        <is>
-          <t>$377.80</t>
-        </is>
-      </c>
+      <c r="V8" s="123" t="n"/>
       <c r="W8" s="38" t="n"/>
       <c r="X8" s="178" t="n"/>
       <c r="Y8" s="16" t="n"/>
@@ -8869,11 +8853,7 @@
       <c r="U9" s="16" t="n">
         <v>2039</v>
       </c>
-      <c r="V9" s="123" t="inlineStr">
-        <is>
-          <t>$377.81</t>
-        </is>
-      </c>
+      <c r="V9" s="123" t="n"/>
       <c r="W9" s="38" t="n"/>
       <c r="X9" s="178" t="n"/>
       <c r="Y9" s="16" t="n"/>
@@ -8963,11 +8943,7 @@
       <c r="U10" s="16" t="n">
         <v>649</v>
       </c>
-      <c r="V10" s="123" t="inlineStr">
-        <is>
-          <t>$377.82</t>
-        </is>
-      </c>
+      <c r="V10" s="123" t="n"/>
       <c r="W10" s="38" t="n"/>
       <c r="X10" s="178" t="n"/>
       <c r="Y10" s="16" t="n"/>
@@ -9057,11 +9033,7 @@
       <c r="U11" s="16" t="n">
         <v>336</v>
       </c>
-      <c r="V11" s="123" t="inlineStr">
-        <is>
-          <t>$377.83</t>
-        </is>
-      </c>
+      <c r="V11" s="123" t="n"/>
       <c r="W11" s="38" t="n"/>
       <c r="X11" s="178" t="n"/>
       <c r="Y11" s="16" t="n"/>
@@ -9151,11 +9123,7 @@
       <c r="U12" s="16" t="n">
         <v>1654</v>
       </c>
-      <c r="V12" s="123" t="inlineStr">
-        <is>
-          <t>$377.84</t>
-        </is>
-      </c>
+      <c r="V12" s="123" t="n"/>
       <c r="W12" s="38" t="n"/>
       <c r="X12" s="178" t="n"/>
       <c r="Y12" s="16" t="n"/>
@@ -9195,11 +9163,7 @@
       <c r="S13" s="38" t="n"/>
       <c r="T13" s="178" t="n"/>
       <c r="U13" s="16" t="n"/>
-      <c r="V13" s="123" t="inlineStr">
-        <is>
-          <t>$377.85</t>
-        </is>
-      </c>
+      <c r="V13" s="123" t="n"/>
       <c r="W13" s="38" t="n"/>
       <c r="X13" s="178" t="n"/>
       <c r="Y13" s="16" t="n"/>
@@ -11479,11 +11443,7 @@
       <c r="S40" s="38" t="n"/>
       <c r="T40" s="178" t="n"/>
       <c r="U40" s="16" t="n"/>
-      <c r="V40" s="123" t="inlineStr">
-        <is>
-          <t>$377.112</t>
-        </is>
-      </c>
+      <c r="V40" s="123" t="n"/>
       <c r="W40" s="38" t="n"/>
       <c r="X40" s="178" t="n"/>
       <c r="Y40" s="16" t="n"/>
@@ -13187,11 +13147,7 @@
       <c r="S61" s="38" t="n"/>
       <c r="T61" s="178" t="n"/>
       <c r="U61" s="16" t="n"/>
-      <c r="V61" s="123" t="inlineStr">
-        <is>
-          <t>$377.133</t>
-        </is>
-      </c>
+      <c r="V61" s="123" t="n"/>
       <c r="W61" s="38" t="n"/>
       <c r="X61" s="178" t="n"/>
       <c r="Y61" s="16" t="n"/>
@@ -13351,11 +13307,7 @@
       <c r="U63" s="16" t="n">
         <v>244</v>
       </c>
-      <c r="V63" s="123" t="inlineStr">
-        <is>
-          <t>$377.135</t>
-        </is>
-      </c>
+      <c r="V63" s="123" t="n"/>
       <c r="W63" s="38" t="n"/>
       <c r="X63" s="178" t="n"/>
       <c r="Y63" s="16" t="n"/>
@@ -13431,11 +13383,7 @@
       <c r="U64" s="16" t="n">
         <v>3080</v>
       </c>
-      <c r="V64" s="123" t="inlineStr">
-        <is>
-          <t>$377.136</t>
-        </is>
-      </c>
+      <c r="V64" s="123" t="n"/>
       <c r="W64" s="38" t="n"/>
       <c r="X64" s="178" t="n"/>
       <c r="Y64" s="16" t="n"/>
@@ -13511,11 +13459,7 @@
       <c r="U65" s="16" t="n">
         <v>596</v>
       </c>
-      <c r="V65" s="123" t="inlineStr">
-        <is>
-          <t>$377.137</t>
-        </is>
-      </c>
+      <c r="V65" s="123" t="n"/>
       <c r="W65" s="38" t="n"/>
       <c r="X65" s="178" t="n"/>
       <c r="Y65" s="16" t="n"/>
@@ -13587,11 +13531,7 @@
       <c r="U66" s="16" t="n">
         <v>85</v>
       </c>
-      <c r="V66" s="123" t="inlineStr">
-        <is>
-          <t>$377.138</t>
-        </is>
-      </c>
+      <c r="V66" s="123" t="n"/>
       <c r="W66" s="38" t="n"/>
       <c r="X66" s="178" t="n"/>
       <c r="Y66" s="16" t="n"/>
@@ -13659,11 +13599,7 @@
       <c r="U67" s="16" t="n">
         <v>773</v>
       </c>
-      <c r="V67" s="123" t="inlineStr">
-        <is>
-          <t>$377.139</t>
-        </is>
-      </c>
+      <c r="V67" s="123" t="n"/>
       <c r="W67" s="38" t="n"/>
       <c r="X67" s="178" t="n"/>
       <c r="Y67" s="16" t="n"/>
@@ -13739,11 +13675,7 @@
       <c r="U68" s="16" t="n">
         <v>1984</v>
       </c>
-      <c r="V68" s="123" t="inlineStr">
-        <is>
-          <t>$377.140</t>
-        </is>
-      </c>
+      <c r="V68" s="123" t="n"/>
       <c r="W68" s="38" t="n"/>
       <c r="X68" s="178" t="n"/>
       <c r="Y68" s="16" t="n"/>
@@ -13819,11 +13751,7 @@
       <c r="U69" s="16" t="n">
         <v>3307</v>
       </c>
-      <c r="V69" s="123" t="inlineStr">
-        <is>
-          <t>$377.141</t>
-        </is>
-      </c>
+      <c r="V69" s="123" t="n"/>
       <c r="W69" s="38" t="n"/>
       <c r="X69" s="178" t="n"/>
       <c r="Y69" s="16" t="n"/>
@@ -13899,11 +13827,7 @@
       <c r="U70" s="16" t="n">
         <v>913</v>
       </c>
-      <c r="V70" s="123" t="inlineStr">
-        <is>
-          <t>$377.142</t>
-        </is>
-      </c>
+      <c r="V70" s="123" t="n"/>
       <c r="W70" s="38" t="n"/>
       <c r="X70" s="178" t="n"/>
       <c r="Y70" s="16" t="n"/>
@@ -13979,11 +13903,7 @@
       <c r="U71" s="16" t="n">
         <v>202</v>
       </c>
-      <c r="V71" s="123" t="inlineStr">
-        <is>
-          <t>$377.143</t>
-        </is>
-      </c>
+      <c r="V71" s="123" t="n"/>
       <c r="W71" s="38" t="n"/>
       <c r="X71" s="178" t="n"/>
       <c r="Y71" s="16" t="n"/>
@@ -14059,11 +13979,7 @@
       <c r="U72" s="16" t="n">
         <v>4612</v>
       </c>
-      <c r="V72" s="123" t="inlineStr">
-        <is>
-          <t>$377.144</t>
-        </is>
-      </c>
+      <c r="V72" s="123" t="n"/>
       <c r="W72" s="38" t="n"/>
       <c r="X72" s="178" t="n"/>
       <c r="Y72" s="16" t="n"/>
@@ -14137,11 +14053,7 @@
       <c r="U73" s="16" t="n">
         <v>103</v>
       </c>
-      <c r="V73" s="123" t="inlineStr">
-        <is>
-          <t>$377.145</t>
-        </is>
-      </c>
+      <c r="V73" s="123" t="n"/>
       <c r="W73" s="38" t="n"/>
       <c r="X73" s="178" t="n"/>
       <c r="Y73" s="16" t="n"/>
@@ -14635,11 +14547,7 @@
       <c r="U79" s="16" t="n">
         <v>1149</v>
       </c>
-      <c r="V79" s="123" t="inlineStr">
-        <is>
-          <t>$377.151</t>
-        </is>
-      </c>
+      <c r="V79" s="123" t="n"/>
       <c r="W79" s="38" t="n"/>
       <c r="X79" s="178" t="n"/>
       <c r="Y79" s="16" t="n"/>
@@ -14715,11 +14623,7 @@
       <c r="U80" s="16" t="n">
         <v>834</v>
       </c>
-      <c r="V80" s="123" t="inlineStr">
-        <is>
-          <t>$377.152</t>
-        </is>
-      </c>
+      <c r="V80" s="123" t="n"/>
       <c r="W80" s="38" t="n"/>
       <c r="X80" s="178" t="n"/>
       <c r="Y80" s="16" t="n"/>
@@ -14795,11 +14699,7 @@
       <c r="U81" s="16" t="n">
         <v>123</v>
       </c>
-      <c r="V81" s="123" t="inlineStr">
-        <is>
-          <t>$377.153</t>
-        </is>
-      </c>
+      <c r="V81" s="123" t="n"/>
       <c r="W81" s="38" t="n"/>
       <c r="X81" s="178" t="n"/>
       <c r="Y81" s="16" t="n"/>
@@ -15043,11 +14943,7 @@
       <c r="U84" s="16" t="n">
         <v>890</v>
       </c>
-      <c r="V84" s="123" t="inlineStr">
-        <is>
-          <t>$377.156</t>
-        </is>
-      </c>
+      <c r="V84" s="123" t="n"/>
       <c r="W84" s="38" t="n"/>
       <c r="X84" s="178" t="n"/>
       <c r="Y84" s="16" t="n"/>
@@ -15283,11 +15179,7 @@
       <c r="U87" s="16" t="n">
         <v>2723</v>
       </c>
-      <c r="V87" s="123" t="inlineStr">
-        <is>
-          <t>$377.159</t>
-        </is>
-      </c>
+      <c r="V87" s="123" t="n"/>
       <c r="W87" s="38" t="n"/>
       <c r="X87" s="178" t="n"/>
       <c r="Y87" s="16" t="n"/>
@@ -15363,11 +15255,7 @@
       <c r="U88" s="16" t="n">
         <v>1700</v>
       </c>
-      <c r="V88" s="123" t="inlineStr">
-        <is>
-          <t>$377.160</t>
-        </is>
-      </c>
+      <c r="V88" s="123" t="n"/>
       <c r="W88" s="38" t="n"/>
       <c r="X88" s="178" t="n"/>
       <c r="Y88" s="16" t="n"/>
@@ -15443,11 +15331,7 @@
       <c r="U89" s="16" t="n">
         <v>702</v>
       </c>
-      <c r="V89" s="123" t="inlineStr">
-        <is>
-          <t>$377.161</t>
-        </is>
-      </c>
+      <c r="V89" s="123" t="n"/>
       <c r="W89" s="38" t="n"/>
       <c r="X89" s="178" t="n"/>
       <c r="Y89" s="16" t="n"/>
@@ -15649,11 +15533,7 @@
       <c r="S92" s="38" t="n"/>
       <c r="T92" s="178" t="n"/>
       <c r="U92" s="16" t="n"/>
-      <c r="V92" s="123" t="inlineStr">
-        <is>
-          <t>$377.164</t>
-        </is>
-      </c>
+      <c r="V92" s="123" t="n"/>
       <c r="W92" s="38" t="n"/>
       <c r="X92" s="178" t="n"/>
       <c r="Y92" s="16" t="n"/>
@@ -15813,11 +15693,7 @@
       <c r="U94" s="16" t="n">
         <v>178</v>
       </c>
-      <c r="V94" s="123" t="inlineStr">
-        <is>
-          <t>$377.166</t>
-        </is>
-      </c>
+      <c r="V94" s="123" t="n"/>
       <c r="W94" s="38" t="n"/>
       <c r="X94" s="178" t="n"/>
       <c r="Y94" s="16" t="n"/>
@@ -15893,11 +15769,7 @@
       <c r="U95" s="16" t="n">
         <v>838</v>
       </c>
-      <c r="V95" s="123" t="inlineStr">
-        <is>
-          <t>$377.167</t>
-        </is>
-      </c>
+      <c r="V95" s="123" t="n"/>
       <c r="W95" s="38" t="n"/>
       <c r="X95" s="178" t="n"/>
       <c r="Y95" s="16" t="n"/>
@@ -15973,11 +15845,7 @@
       <c r="U96" s="16" t="n">
         <v>451</v>
       </c>
-      <c r="V96" s="123" t="inlineStr">
-        <is>
-          <t>$377.168</t>
-        </is>
-      </c>
+      <c r="V96" s="123" t="n"/>
       <c r="W96" s="38" t="n"/>
       <c r="X96" s="178" t="n"/>
       <c r="Y96" s="16" t="n"/>
@@ -16053,11 +15921,7 @@
       <c r="U97" s="16" t="n">
         <v>142</v>
       </c>
-      <c r="V97" s="123" t="inlineStr">
-        <is>
-          <t>$377.169</t>
-        </is>
-      </c>
+      <c r="V97" s="123" t="n"/>
       <c r="W97" s="38" t="n"/>
       <c r="X97" s="178" t="n"/>
       <c r="Y97" s="16" t="n"/>
@@ -16217,11 +16081,7 @@
       <c r="U99" s="16" t="n">
         <v>20</v>
       </c>
-      <c r="V99" s="123" t="inlineStr">
-        <is>
-          <t>$377.171</t>
-        </is>
-      </c>
+      <c r="V99" s="123" t="n"/>
       <c r="W99" s="38" t="n"/>
       <c r="X99" s="178" t="n"/>
       <c r="Y99" s="16" t="n"/>
@@ -16297,11 +16157,7 @@
       <c r="U100" s="16" t="n">
         <v>1040</v>
       </c>
-      <c r="V100" s="123" t="inlineStr">
-        <is>
-          <t>$377.172</t>
-        </is>
-      </c>
+      <c r="V100" s="123" t="n"/>
       <c r="W100" s="38" t="n"/>
       <c r="X100" s="178" t="n"/>
       <c r="Y100" s="16" t="n"/>
@@ -16377,11 +16233,7 @@
       <c r="U101" s="16" t="n">
         <v>21</v>
       </c>
-      <c r="V101" s="123" t="inlineStr">
-        <is>
-          <t>$377.173</t>
-        </is>
-      </c>
+      <c r="V101" s="123" t="n"/>
       <c r="W101" s="38" t="n"/>
       <c r="X101" s="178" t="n"/>
       <c r="Y101" s="16" t="n"/>
@@ -16541,11 +16393,7 @@
       <c r="U103" s="16" t="n">
         <v>829</v>
       </c>
-      <c r="V103" s="123" t="inlineStr">
-        <is>
-          <t>$377.175</t>
-        </is>
-      </c>
+      <c r="V103" s="123" t="n"/>
       <c r="W103" s="38" t="n"/>
       <c r="X103" s="178" t="n"/>
       <c r="Y103" s="16" t="n"/>
@@ -16621,11 +16469,7 @@
       <c r="U104" s="16" t="n">
         <v>70</v>
       </c>
-      <c r="V104" s="123" t="inlineStr">
-        <is>
-          <t>$377.176</t>
-        </is>
-      </c>
+      <c r="V104" s="123" t="n"/>
       <c r="W104" s="38" t="n"/>
       <c r="X104" s="178" t="n"/>
       <c r="Y104" s="16" t="n"/>
@@ -16665,11 +16509,7 @@
       <c r="S105" s="38" t="n"/>
       <c r="T105" s="178" t="n"/>
       <c r="U105" s="16" t="n"/>
-      <c r="V105" s="123" t="inlineStr">
-        <is>
-          <t>$377.177</t>
-        </is>
-      </c>
+      <c r="V105" s="123" t="n"/>
       <c r="W105" s="38" t="n"/>
       <c r="X105" s="178" t="n"/>
       <c r="Y105" s="16" t="n"/>
@@ -16695,11 +16535,7 @@
       <c r="S106" s="38" t="n"/>
       <c r="T106" s="178" t="n"/>
       <c r="U106" s="16" t="n"/>
-      <c r="V106" s="123" t="inlineStr">
-        <is>
-          <t>$377.178</t>
-        </is>
-      </c>
+      <c r="V106" s="123" t="n"/>
       <c r="W106" s="38" t="n"/>
       <c r="X106" s="178" t="n"/>
       <c r="Y106" s="16" t="n"/>
@@ -16767,11 +16603,7 @@
       <c r="U107" s="16" t="n">
         <v>362</v>
       </c>
-      <c r="V107" s="123" t="inlineStr">
-        <is>
-          <t>$377.179</t>
-        </is>
-      </c>
+      <c r="V107" s="123" t="n"/>
       <c r="W107" s="38" t="n"/>
       <c r="X107" s="178" t="n"/>
       <c r="Y107" s="16" t="n"/>
@@ -16839,11 +16671,7 @@
       <c r="U108" s="16" t="n">
         <v>10560</v>
       </c>
-      <c r="V108" s="123" t="inlineStr">
-        <is>
-          <t>$377.180</t>
-        </is>
-      </c>
+      <c r="V108" s="123" t="n"/>
       <c r="W108" s="38" t="n"/>
       <c r="X108" s="178" t="n"/>
       <c r="Y108" s="16" t="n"/>
@@ -16919,11 +16747,7 @@
       <c r="U109" s="16" t="n">
         <v>1307200</v>
       </c>
-      <c r="V109" s="123" t="inlineStr">
-        <is>
-          <t>$377.181</t>
-        </is>
-      </c>
+      <c r="V109" s="123" t="n"/>
       <c r="W109" s="38" t="n"/>
       <c r="X109" s="178" t="n"/>
       <c r="Y109" s="16" t="n"/>
@@ -16999,11 +16823,7 @@
       <c r="U110" s="16" t="n">
         <v>78336</v>
       </c>
-      <c r="V110" s="123" t="inlineStr">
-        <is>
-          <t>$377.182</t>
-        </is>
-      </c>
+      <c r="V110" s="123" t="n"/>
       <c r="W110" s="38" t="n"/>
       <c r="X110" s="178" t="n"/>
       <c r="Y110" s="16" t="n"/>
@@ -17079,11 +16899,7 @@
       <c r="U111" s="16" t="n">
         <v>3800</v>
       </c>
-      <c r="V111" s="123" t="inlineStr">
-        <is>
-          <t>$377.183</t>
-        </is>
-      </c>
+      <c r="V111" s="123" t="n"/>
       <c r="W111" s="38" t="n"/>
       <c r="X111" s="178" t="n"/>
       <c r="Y111" s="16" t="n"/>
@@ -17159,11 +16975,7 @@
       <c r="U112" s="16" t="n">
         <v>4200</v>
       </c>
-      <c r="V112" s="123" t="inlineStr">
-        <is>
-          <t>$377.184</t>
-        </is>
-      </c>
+      <c r="V112" s="123" t="n"/>
       <c r="W112" s="38" t="n"/>
       <c r="X112" s="178" t="n"/>
       <c r="Y112" s="16" t="n"/>
@@ -17189,11 +17001,7 @@
       <c r="S113" s="38" t="n"/>
       <c r="T113" s="178" t="n"/>
       <c r="U113" s="16" t="n"/>
-      <c r="V113" s="123" t="inlineStr">
-        <is>
-          <t>$377.185</t>
-        </is>
-      </c>
+      <c r="V113" s="123" t="n"/>
       <c r="W113" s="38" t="n"/>
       <c r="X113" s="178" t="n"/>
       <c r="Y113" s="16" t="n"/>
